--- a/Data/test3.xlsx
+++ b/Data/test3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="23040" windowHeight="16680" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="23040" windowHeight="16680" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="stud.info" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="50">
   <si>
     <t>score</t>
   </si>
@@ -59,9 +59,6 @@
     <t>soph</t>
   </si>
   <si>
-    <t>coursegrade</t>
-  </si>
-  <si>
     <t>statementnum</t>
   </si>
   <si>
@@ -183,6 +180,12 @@
   </si>
   <si>
     <t>emailaddress</t>
+  </si>
+  <si>
+    <t>coursegrade_w16</t>
+  </si>
+  <si>
+    <t>coursegrade_w17</t>
   </si>
 </sst>
 </file>
@@ -571,12 +574,12 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>2016</v>
@@ -587,7 +590,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>2016</v>
@@ -598,7 +601,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>2016</v>
@@ -609,7 +612,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>2016</v>
@@ -620,7 +623,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>2016</v>
@@ -631,21 +634,21 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>2015</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>2015</v>
@@ -654,12 +657,12 @@
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>2015</v>
@@ -668,12 +671,12 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>2015</v>
@@ -682,12 +685,12 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>2015</v>
@@ -696,12 +699,12 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>2015</v>
@@ -710,12 +713,12 @@
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>2015</v>
@@ -724,12 +727,12 @@
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>2015</v>
@@ -738,12 +741,12 @@
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>2015</v>
@@ -752,12 +755,12 @@
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>2015</v>
@@ -766,12 +769,12 @@
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>2015</v>
@@ -780,12 +783,12 @@
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>2015</v>
@@ -794,12 +797,12 @@
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>2015</v>
@@ -808,12 +811,12 @@
         <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>2015</v>
@@ -822,12 +825,12 @@
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21">
         <v>2015</v>
@@ -836,7 +839,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -866,13 +869,13 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
@@ -886,30 +889,30 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>37</v>
-      </c>
-      <c r="H1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>92</v>
@@ -935,7 +938,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>56</v>
@@ -961,7 +964,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>47</v>
@@ -987,7 +990,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>21</v>
@@ -1013,7 +1016,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>85</v>
@@ -1047,7 +1050,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1067,30 +1070,30 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>43</v>
-      </c>
-      <c r="H1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>92</v>
@@ -1116,7 +1119,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>56</v>
@@ -1142,7 +1145,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>47</v>
@@ -1168,7 +1171,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>21</v>
@@ -1194,7 +1197,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>85</v>
@@ -1220,7 +1223,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>92</v>
@@ -1246,7 +1249,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>56</v>
@@ -1272,7 +1275,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>47</v>
@@ -1298,7 +1301,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>21</v>
@@ -1324,7 +1327,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>85</v>
@@ -1350,7 +1353,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>92</v>
@@ -1376,7 +1379,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>56</v>
@@ -1402,7 +1405,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>47</v>
@@ -1428,7 +1431,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>21</v>
@@ -1454,7 +1457,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>85</v>
@@ -1487,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1508,39 +1511,39 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>43</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>44</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>46</v>
-      </c>
-      <c r="K1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>92</v>
@@ -1575,7 +1578,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>56</v>
@@ -1610,7 +1613,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>47</v>
@@ -1645,7 +1648,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>21</v>
@@ -1680,7 +1683,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>85</v>
@@ -1715,7 +1718,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>92</v>
@@ -1750,7 +1753,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>56</v>
@@ -1785,7 +1788,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>47</v>
@@ -1820,7 +1823,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>21</v>
@@ -1855,7 +1858,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>85</v>
@@ -1890,7 +1893,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>92</v>
@@ -1925,7 +1928,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>56</v>
@@ -1960,7 +1963,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>47</v>
@@ -1995,7 +1998,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>21</v>
@@ -2030,7 +2033,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>85</v>
@@ -2087,7 +2090,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -2095,7 +2098,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2106,7 +2109,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2117,7 +2120,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2128,7 +2131,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2139,7 +2142,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2150,7 +2153,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2161,7 +2164,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2172,7 +2175,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2183,7 +2186,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -2194,7 +2197,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -2205,7 +2208,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2216,7 +2219,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -2227,7 +2230,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -2238,7 +2241,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -2249,7 +2252,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -2260,7 +2263,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -2271,7 +2274,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>7</v>
@@ -2282,7 +2285,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>9</v>
@@ -2304,7 +2307,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -2315,7 +2318,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22">
         <v>11</v>
@@ -2326,7 +2329,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23">
         <v>12</v>
@@ -2337,7 +2340,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2348,7 +2351,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -2359,7 +2362,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -2370,7 +2373,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -2381,7 +2384,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2392,7 +2395,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -2403,7 +2406,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -2414,7 +2417,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -2425,7 +2428,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -2436,7 +2439,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33">
         <v>6</v>
@@ -2473,7 +2476,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -2481,7 +2484,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2492,7 +2495,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2503,7 +2506,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2514,7 +2517,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2525,7 +2528,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2536,7 +2539,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2547,7 +2550,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2558,7 +2561,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2569,7 +2572,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2580,7 +2583,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -2591,7 +2594,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -2602,7 +2605,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -2613,7 +2616,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -2624,7 +2627,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2635,7 +2638,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -2646,7 +2649,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2657,7 +2660,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -2668,7 +2671,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -2690,7 +2693,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -2701,7 +2704,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2712,7 +2715,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -2723,7 +2726,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -2734,7 +2737,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -2745,7 +2748,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -2756,7 +2759,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -2767,7 +2770,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>7</v>
@@ -2778,7 +2781,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2789,7 +2792,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -2800,7 +2803,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -2811,7 +2814,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -2822,7 +2825,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -2833,7 +2836,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -2844,7 +2847,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35">
         <v>7</v>
@@ -2855,7 +2858,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -2866,7 +2869,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B37">
         <v>9</v>
@@ -2877,7 +2880,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -2888,7 +2891,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -2899,7 +2902,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -2910,7 +2913,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -2921,7 +2924,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42">
         <v>5</v>
@@ -2932,7 +2935,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B44">
         <v>7</v>
@@ -2954,7 +2957,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B45">
         <v>8</v>
@@ -2965,7 +2968,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -2976,7 +2979,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -2987,7 +2990,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -2998,7 +3001,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -3009,7 +3012,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -3020,7 +3023,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -3031,7 +3034,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B52">
         <v>7</v>
@@ -3042,7 +3045,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53">
         <v>8</v>
@@ -3053,7 +3056,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B54">
         <v>9</v>
@@ -3064,7 +3067,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B55">
         <v>10</v>
@@ -3075,7 +3078,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B56">
         <v>11</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -3097,7 +3100,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -3108,7 +3111,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -3119,7 +3122,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -3130,7 +3133,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -3141,7 +3144,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -3152,7 +3155,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B63">
         <v>4</v>
@@ -3163,7 +3166,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -3174,7 +3177,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -3185,7 +3188,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -3196,7 +3199,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -3207,7 +3210,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -3218,7 +3221,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B69">
         <v>3</v>
@@ -3229,7 +3232,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B70">
         <v>4</v>
@@ -3240,7 +3243,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -3251,7 +3254,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -3262,7 +3265,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B73">
         <v>7</v>
@@ -3273,7 +3276,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -3284,7 +3287,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -3295,7 +3298,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -3306,7 +3309,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -3317,7 +3320,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -3328,7 +3331,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B79">
         <v>6</v>
@@ -3339,7 +3342,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B80">
         <v>7</v>
@@ -3350,7 +3353,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B81">
         <v>8</v>
@@ -3361,7 +3364,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B82">
         <v>9</v>
@@ -3372,7 +3375,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -3383,7 +3386,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -3394,7 +3397,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B85">
         <v>3</v>
@@ -3405,7 +3408,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B86">
         <v>4</v>
@@ -3416,7 +3419,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -3427,7 +3430,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B88">
         <v>6</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B89">
         <v>7</v>
@@ -3449,7 +3452,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B90">
         <v>8</v>
@@ -3460,7 +3463,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B91">
         <v>9</v>
@@ -3471,7 +3474,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B92">
         <v>10</v>
@@ -3482,7 +3485,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B93">
         <v>11</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -3504,7 +3507,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B95">
         <v>2</v>
@@ -3515,7 +3518,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B96">
         <v>3</v>
@@ -3526,7 +3529,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B97">
         <v>4</v>
@@ -3537,7 +3540,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -3548,7 +3551,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B99">
         <v>6</v>
@@ -3559,7 +3562,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B100">
         <v>7</v>
@@ -3570,7 +3573,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B101">
         <v>8</v>
@@ -3591,7 +3594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C87"/>
     </sheetView>
   </sheetViews>
@@ -3605,7 +3608,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -3613,7 +3616,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3624,7 +3627,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3635,7 +3638,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3646,7 +3649,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3657,7 +3660,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -3668,7 +3671,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -3679,7 +3682,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -3690,7 +3693,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -3701,7 +3704,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -3712,7 +3715,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -3723,7 +3726,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3734,7 +3737,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -3745,7 +3748,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3756,7 +3759,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -3767,7 +3770,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -3778,7 +3781,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -3789,7 +3792,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -3800,7 +3803,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -3811,7 +3814,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -3822,7 +3825,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>7</v>
@@ -3833,7 +3836,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3844,7 +3847,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -3855,7 +3858,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -3866,7 +3869,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -3877,7 +3880,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -3888,7 +3891,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -3899,7 +3902,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>7</v>
@@ -3910,7 +3913,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -3921,7 +3924,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30">
         <v>9</v>
@@ -3932,7 +3935,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31">
         <v>10</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32">
         <v>11</v>
@@ -3954,7 +3957,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3965,7 +3968,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -3976,7 +3979,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -3987,7 +3990,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -3998,7 +4001,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -4009,7 +4012,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38">
         <v>6</v>
@@ -4020,7 +4023,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39">
         <v>7</v>
@@ -4031,7 +4034,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -4042,7 +4045,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41">
         <v>9</v>
@@ -4053,7 +4056,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42">
         <v>10</v>
@@ -4064,7 +4067,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B43">
         <v>11</v>
@@ -4075,7 +4078,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B44">
         <v>12</v>
@@ -4086,7 +4089,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B45">
         <v>13</v>
@@ -4097,7 +4100,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B46">
         <v>14</v>
@@ -4108,7 +4111,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -4130,7 +4133,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -4141,7 +4144,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B50">
         <v>4</v>
@@ -4152,7 +4155,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B51">
         <v>5</v>
@@ -4163,7 +4166,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B52">
         <v>6</v>
@@ -4174,7 +4177,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53">
         <v>7</v>
@@ -4185,7 +4188,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B54">
         <v>8</v>
@@ -4196,7 +4199,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B55">
         <v>9</v>
@@ -4207,7 +4210,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -4218,7 +4221,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -4229,7 +4232,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -4240,7 +4243,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -4251,7 +4254,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -4262,7 +4265,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -4273,7 +4276,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -4284,7 +4287,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -4295,7 +4298,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -4306,7 +4309,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -4317,7 +4320,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -4328,7 +4331,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B67">
         <v>4</v>
@@ -4339,7 +4342,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B68">
         <v>5</v>
@@ -4350,7 +4353,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -4361,7 +4364,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B70">
         <v>7</v>
@@ -4372,7 +4375,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B71">
         <v>8</v>
@@ -4383,7 +4386,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B72">
         <v>9</v>
@@ -4394,7 +4397,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B73">
         <v>10</v>
@@ -4405,7 +4408,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -4416,7 +4419,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -4427,7 +4430,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -4438,7 +4441,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -4449,7 +4452,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -4460,7 +4463,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -4471,7 +4474,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -4482,7 +4485,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B81">
         <v>3</v>
@@ -4493,7 +4496,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -4504,7 +4507,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B83">
         <v>5</v>
@@ -4515,7 +4518,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B84">
         <v>6</v>
@@ -4526,7 +4529,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B85">
         <v>7</v>
@@ -4537,7 +4540,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -4548,7 +4551,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B87">
         <v>2</v>
